--- a/biology/Médecine/Manuscrit_Egerton_747/Manuscrit_Egerton_747.xlsx
+++ b/biology/Médecine/Manuscrit_Egerton_747/Manuscrit_Egerton_747.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le manuscrit Egerton 747 de la British Library de Londres est un manuscrit enluminé compilé à la fin du XIIIe siècle ou au début du XIVe siècle qui contient notamment la plus ancienne version connue d'un Tractatus de herbis, un traité illustré de simples médecines. Bien qu'il soit traditionnellement attribué à un dénommé Barthélémy Mini de Sienne dont le nom figure dans le colophon de l'ouvrage, son véritable auteur est inconnu. Il a vraisemblablement été rédigé en Italie du Sud, probablement à Salerne.
@@ -512,9 +524,11 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le manuscrit contient les textes suivants[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le manuscrit contient les textes suivants :
 fo 1 ro–106 vo : Tractatus de herbis ;
 fo 106 vo–109 vo : illustrations de plantes non décrites dans le traité (sans texte) ;
 fo 109 vo : extrait des Prognostica Galieni ;
